--- a/OssStats.xlsx
+++ b/OssStats.xlsx
@@ -536,7 +536,7 @@
         <v>0.001124739646911621</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0.001124739646911621</v>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
